--- a/public/data/InitialData/сельхозпроизводство.xlsx
+++ b/public/data/InitialData/сельхозпроизводство.xlsx
@@ -558,17 +558,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="7" width="82.42578125" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
